--- a/data/trans_bre/CoTrAQ_R2-Clase-trans_bre.xlsx
+++ b/data/trans_bre/CoTrAQ_R2-Clase-trans_bre.xlsx
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.081651035179179</v>
+        <v>-2.501320889496915</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.74574600163825</v>
+        <v>-3.186878232113138</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>-0.4317480470952749</v>
+        <v>-0.5010507250639084</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.3152546727339887</v>
+        <v>-0.285528454075392</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.514728856567125</v>
+        <v>6.153950481716509</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.339794795005565</v>
+        <v>8.49423628218581</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2.463537694615258</v>
+        <v>2.093105622257781</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1.122340726559727</v>
+        <v>1.249691757428813</v>
       </c>
     </row>
     <row r="7">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.771916370252046</v>
+        <v>1.983609385759368</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>4.621467710775497</v>
+        <v>4.96377329231232</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.1400155095025086</v>
+        <v>0.09453381815977788</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.1664507401407603</v>
+        <v>0.1630252140979978</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>17.67910217659482</v>
+        <v>17.40100996762732</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>22.26246375058731</v>
+        <v>23.17233787350447</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>2.844872395716083</v>
+        <v>2.713706415897996</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.352546449925199</v>
+        <v>1.45286323089973</v>
       </c>
     </row>
     <row r="10">
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-7.750235232474707</v>
+        <v>-8.048135081160879</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-21.3262432144273</v>
+        <v>-21.41898183087568</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>-0.7003881348607256</v>
+        <v>-0.7131526603796654</v>
       </c>
       <c r="F11" s="6" t="n">
         <v>-1</v>
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.399480105500583</v>
+        <v>4.523084544448212</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-8.41837369882507</v>
+        <v>-7.392003575727661</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>0.7570213906932853</v>
+        <v>0.7605674877104499</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>-0.419754614149992</v>
+        <v>-0.3639768313032247</v>
       </c>
     </row>
     <row r="13">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-5.693772404538764</v>
+        <v>-5.248832806959552</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-3.978069883972692</v>
+        <v>-3.52754897964232</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2621194117845651</v>
+        <v>-0.241801366970745</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1206566106173421</v>
+        <v>-0.1094775136117705</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.402389670159552</v>
+        <v>7.401696773100896</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>8.829265702097725</v>
+        <v>9.130272994008577</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.4695897451777723</v>
+        <v>0.4720078432617758</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.3438710297515445</v>
+        <v>0.362340801179926</v>
       </c>
     </row>
     <row r="16">
@@ -865,16 +865,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-12.47370584540298</v>
+        <v>-11.69980389841132</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-9.487125150620242</v>
+        <v>-10.62869367121723</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>-0.3252603013901545</v>
+        <v>-0.3080707859990964</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.1836772934354704</v>
+        <v>-0.2094274095681335</v>
       </c>
     </row>
     <row r="18">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9.106669760865255</v>
+        <v>9.785915828014566</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>10.68181502117283</v>
+        <v>9.576979188517708</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>0.3319097706830065</v>
+        <v>0.3669213657636349</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>0.2696442251206433</v>
+        <v>0.2406204742467061</v>
       </c>
     </row>
     <row r="19">
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.7649707362099373</v>
+        <v>0.4998884853830282</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.9207537285422671</v>
+        <v>0.6935425420875181</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.05891723059371563</v>
+        <v>0.03054166062031727</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.03801987849057318</v>
+        <v>0.02600171341007746</v>
       </c>
     </row>
     <row r="21">
@@ -949,16 +949,16 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>6.863381059121392</v>
+        <v>6.885989080337532</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>8.436443798890918</v>
+        <v>8.007597692599989</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.5751701632629073</v>
+        <v>0.5620560237030897</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.3799035253692513</v>
+        <v>0.3514583400132408</v>
       </c>
     </row>
     <row r="22">
